--- a/new_modules/Summary_2023-05-12_L2A.xlsx
+++ b/new_modules/Summary_2023-05-12_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1256.65234375</v>
+        <v>1252.478759765625</v>
       </c>
       <c r="C2">
-        <v>0.9427</v>
+        <v>0.9396</v>
       </c>
       <c r="D2">
-        <v>0.9205999970436096</v>
+        <v>0.9196000099182129</v>
       </c>
       <c r="E2">
-        <v>1.436900019645691</v>
+        <v>1.358000040054321</v>
       </c>
       <c r="F2">
-        <v>0.6973999738693237</v>
+        <v>0.7696999907493591</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7446</v>
+        <v>0.7351</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1240.852905273438</v>
+        <v>1143.126831054688</v>
       </c>
       <c r="C3">
-        <v>0.9927</v>
+        <v>0.9145</v>
       </c>
       <c r="D3">
-        <v>0.9370000000000001</v>
+        <v>0.9062</v>
       </c>
       <c r="E3">
-        <v>1.758299946784973</v>
+        <v>1.104900002479553</v>
       </c>
       <c r="F3">
-        <v>0.620199978351593</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.8895999999999999</v>
+        <v>0.6163999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>831.459228515625</v>
+        <v>787.7871704101562</v>
       </c>
       <c r="C4">
-        <v>0.9713000000000001</v>
+        <v>0.9203</v>
       </c>
       <c r="D4">
-        <v>0.9142</v>
+        <v>0.9111</v>
       </c>
       <c r="E4">
-        <v>1.814000010490417</v>
+        <v>1.07860004901886</v>
       </c>
       <c r="F4">
-        <v>0.7605000138282776</v>
+        <v>0.86080002784729</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.6871</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>812.6552124023438</v>
+        <v>866.4793090820312</v>
       </c>
       <c r="C5">
-        <v>0.8572</v>
+        <v>0.914</v>
       </c>
       <c r="D5">
-        <v>0.8521</v>
+        <v>0.9165</v>
       </c>
       <c r="E5">
-        <v>1.208400011062622</v>
+        <v>0.9872000217437744</v>
       </c>
       <c r="F5">
-        <v>0.5895000100135803</v>
+        <v>0.6866999864578247</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.1378</v>
+        <v>0.7077</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1114.377685546875</v>
+        <v>1152.57763671875</v>
       </c>
       <c r="C6">
-        <v>0.8816000000000001</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="D6">
-        <v>0.8751</v>
+        <v>0.9131</v>
       </c>
       <c r="E6">
-        <v>1.097399950027466</v>
+        <v>0.960099995136261</v>
       </c>
       <c r="F6">
-        <v>0.7153999805450439</v>
+        <v>0.809499979019165</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.341</v>
+        <v>0.6777</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>866.317626953125</v>
+        <v>906.7448120117188</v>
       </c>
       <c r="C7">
-        <v>0.8724</v>
+        <v>0.9131</v>
       </c>
       <c r="D7">
-        <v>0.8702999949455261</v>
+        <v>0.9132000207901001</v>
       </c>
       <c r="E7">
-        <v>1.058799982070923</v>
+        <v>0.9473000168800354</v>
       </c>
       <c r="F7">
-        <v>0.732699990272522</v>
+        <v>0.8410000205039978</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.2986</v>
+        <v>0.6788999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>948.5322265625</v>
+        <v>1014.243530273438</v>
       </c>
       <c r="C8">
-        <v>0.8499</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="D8">
-        <v>0.8461</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="E8">
-        <v>1.070999979972839</v>
+        <v>0.9652000069618225</v>
       </c>
       <c r="F8">
-        <v>0.7419000267982483</v>
+        <v>0.8661999702453613</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.0844</v>
+        <v>0.6399</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7070.8466796875</v>
+        <v>7123.4375</v>
       </c>
       <c r="C9">
-        <v>0.9113</v>
+        <v>0.918</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>1.814000010490417</v>
+        <v>1.358000040054321</v>
       </c>
       <c r="F9">
-        <v>0.5895000100135803</v>
+        <v>0.6866999864578247</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.1831</v>
+        <v>4.715699999999999</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-12_L2A.xlsx
+++ b/new_modules/Summary_2023-05-12_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1252.478759765625</v>
+        <v>1256.410888671875</v>
       </c>
       <c r="C2">
-        <v>0.9396</v>
+        <v>0.9425</v>
       </c>
       <c r="D2">
-        <v>0.9196000099182129</v>
+        <v>0.9204999804496765</v>
       </c>
       <c r="E2">
-        <v>1.358000040054321</v>
+        <v>1.436599969863892</v>
       </c>
       <c r="F2">
-        <v>0.7696999907493591</v>
+        <v>0.6972000002861023</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7351</v>
+        <v>0.7431</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1143.126831054688</v>
+        <v>1240.614501953125</v>
       </c>
       <c r="C3">
-        <v>0.9145</v>
+        <v>0.9925</v>
       </c>
       <c r="D3">
-        <v>0.9062</v>
+        <v>0.9368</v>
       </c>
       <c r="E3">
-        <v>1.104900002479553</v>
+        <v>1.758000016212463</v>
       </c>
       <c r="F3">
-        <v>0.7699999809265137</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.6163999999999999</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>787.7871704101562</v>
+        <v>831.2996215820312</v>
       </c>
       <c r="C4">
-        <v>0.9203</v>
+        <v>0.9711</v>
       </c>
       <c r="D4">
-        <v>0.9111</v>
+        <v>0.914</v>
       </c>
       <c r="E4">
-        <v>1.07860004901886</v>
+        <v>1.813699960708618</v>
       </c>
       <c r="F4">
-        <v>0.86080002784729</v>
+        <v>0.7603999972343445</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.66</v>
+        <v>0.6856</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>866.4793090820312</v>
+        <v>812.4990844726562</v>
       </c>
       <c r="C5">
-        <v>0.914</v>
+        <v>0.8571</v>
       </c>
       <c r="D5">
-        <v>0.9165</v>
+        <v>0.852</v>
       </c>
       <c r="E5">
-        <v>0.9872000217437744</v>
+        <v>1.208099961280823</v>
       </c>
       <c r="F5">
-        <v>0.6866999864578247</v>
+        <v>0.5893999934196472</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.7077</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1152.57763671875</v>
+        <v>1114.16357421875</v>
       </c>
       <c r="C6">
-        <v>0.9118000000000001</v>
+        <v>0.8815</v>
       </c>
       <c r="D6">
-        <v>0.9131</v>
+        <v>0.8749</v>
       </c>
       <c r="E6">
-        <v>0.960099995136261</v>
+        <v>1.097100019454956</v>
       </c>
       <c r="F6">
-        <v>0.809499979019165</v>
+        <v>0.7152000069618225</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.6777</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>906.7448120117188</v>
+        <v>866.1511840820312</v>
       </c>
       <c r="C7">
-        <v>0.9131</v>
+        <v>0.8723</v>
       </c>
       <c r="D7">
-        <v>0.9132000207901001</v>
+        <v>0.8701000213623047</v>
       </c>
       <c r="E7">
-        <v>0.9473000168800354</v>
+        <v>1.058599948883057</v>
       </c>
       <c r="F7">
-        <v>0.8410000205039978</v>
+        <v>0.7325999736785889</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.6788999999999999</v>
+        <v>0.2972</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1014.243530273438</v>
+        <v>948.3499145507812</v>
       </c>
       <c r="C8">
-        <v>0.9088000000000001</v>
+        <v>0.8498</v>
       </c>
       <c r="D8">
-        <v>0.9088000000000001</v>
+        <v>0.8459</v>
       </c>
       <c r="E8">
-        <v>0.9652000069618225</v>
+        <v>1.070799946784973</v>
       </c>
       <c r="F8">
-        <v>0.8661999702453613</v>
+        <v>0.7418000102043152</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6399</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7123.4375</v>
+        <v>7069.4892578125</v>
       </c>
       <c r="C9">
-        <v>0.918</v>
+        <v>0.9111</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.358000040054321</v>
+        <v>1.813699960708618</v>
       </c>
       <c r="F9">
-        <v>0.6866999864578247</v>
+        <v>0.5893999934196472</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>4.715699999999999</v>
+        <v>3.1728</v>
       </c>
     </row>
   </sheetData>
